--- a/TestData/T1952_Companies_ValidationRule_OnlyDataHygieneAndSystemAdminsToChangeRecordType.xlsx
+++ b/TestData/T1952_Companies_ValidationRule_OnlyDataHygieneAndSystemAdminsToChangeRecordType.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HL\SalesForce_Project\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552925D0-EEB2-43BF-8057-4D6E3B14B432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D54251-B489-4502-A013-B96768EC322F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Users</t>
   </si>
   <si>
-    <t>Nicole Bicho</t>
-  </si>
-  <si>
     <t>UsersRoles</t>
   </si>
   <si>
@@ -71,6 +68,9 @@
   </si>
   <si>
     <t>Houlihan Company</t>
+  </si>
+  <si>
+    <t>Drew Koecher</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -439,7 +439,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,7 +464,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -475,23 +475,23 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
